--- a/OutputData/Nipah/Pubmed.xlsx
+++ b/OutputData/Nipah/Pubmed.xlsx
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>island flying foxes (pteropus hypomelanus)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>island flying foxes (pteropus hypomelanus)</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>cell cultures</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>cell cultures</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>infected cell cultures​</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>infected cell cultures​</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">

--- a/OutputData/Nipah/Pubmed.xlsx
+++ b/OutputData/Nipah/Pubmed.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>oropharyngeal swab</t>
+          <t>Oropharyngeal swab</t>
         </is>
       </c>
       <c r="AC3" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>kidney and spleen</t>
+          <t>Kidney and spleen</t>
         </is>
       </c>
       <c r="AC4" t="n">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>blood and csf</t>
+          <t>Blood and csf</t>
         </is>
       </c>
       <c r="AC5" t="n">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>blood and throat swab and urine</t>
+          <t>Blood and throat swab and urine</t>
         </is>
       </c>
       <c r="AC6" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC7" t="n">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>kidney and liver and spleen</t>
+          <t>Kidney and liver and spleen</t>
         </is>
       </c>
       <c r="AC8" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>oropharyngeal swab and urine</t>
+          <t>Oropharyngeal swab and urine</t>
         </is>
       </c>
       <c r="AC9" t="n">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>throat swab and urine</t>
+          <t>Throat swab and urine</t>
         </is>
       </c>
       <c r="AC10" t="n">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>liver and lung and spleen and throat swab</t>
+          <t>Liver and lung and spleen and throat swab</t>
         </is>
       </c>
       <c r="AC11" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>throat swab and urine</t>
+          <t>Throat swab and urine</t>
         </is>
       </c>
       <c r="AC12" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>blood and throat swab and urine</t>
+          <t>Blood and throat swab and urine</t>
         </is>
       </c>
       <c r="AC13" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>liver and spleen</t>
+          <t>Liver and spleen</t>
         </is>
       </c>
       <c r="AC14" t="n">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC16" t="n">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC17" t="n">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>kidney and liver</t>
+          <t>Kidney and liver</t>
         </is>
       </c>
       <c r="AC18" t="n">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>csf and throat swab and urine</t>
+          <t>Csf and throat swab and urine</t>
         </is>
       </c>
       <c r="AC19" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>lung</t>
+          <t>Lung</t>
         </is>
       </c>
       <c r="AC20" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC21" t="n">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC22" t="n">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC23" t="n">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC24" t="n">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>csf and oropharyngeal swab and urine</t>
+          <t>Csf and oropharyngeal swab and urine</t>
         </is>
       </c>
       <c r="AC25" t="n">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC26" t="n">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>blood and lung</t>
+          <t>Blood and lung</t>
         </is>
       </c>
       <c r="AC27" t="n">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC28" t="n">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>brain</t>
+          <t>Brain</t>
         </is>
       </c>
       <c r="AC30" t="n">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>brain</t>
+          <t>Brain</t>
         </is>
       </c>
       <c r="AC31" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>Urine</t>
         </is>
       </c>
       <c r="AC33" t="n">
